--- a/24-25Year/Fall24/DES214/2DTopDownProceduralShooter.xlsx
+++ b/24-25Year/Fall24/DES214/2DTopDownProceduralShooter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingLoui1221\Documents\DIT Stuff\DITRepo\DITWork\24-25Year\Fall24\DES214\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF85DE3-26C6-4BBB-94A5-6F37E15474B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CB8523-306A-478F-B2FF-34CA845355FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
   <si>
     <t>PLAYTEST REPORT #1</t>
   </si>
@@ -1257,6 +1257,12 @@
   </si>
   <si>
     <t>Full Credit</t>
+  </si>
+  <si>
+    <t>Partial Credit</t>
+  </si>
+  <si>
+    <t>No Credit</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1822,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1826,7 +1832,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1851,20 +1857,6 @@
       <font>
         <strike val="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
@@ -1903,6 +1895,20 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2033,7 +2039,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2043,7 +2049,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2107,7 +2113,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2117,7 +2123,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2399,24 +2405,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="130.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="6.5703125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="130.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="24" thickBot="1">
       <c r="A1" s="46">
         <f>MIN(1,(MAX(0,(SUM(A4:A1004)+IF(ISBLANK(A2),0,MIN(0,A2-0.6)))*IF(A50&lt;&gt;"n/a",1,IF(A39&lt;&gt;"n/a",1.25,IF(A28&lt;&gt;"n/a",5/3,IF(A17&lt;&gt;"n/a",2.5,5))))+IF(A61&lt;&gt;"n/a",0,0.1)+IF(A6&lt;&gt;"n/a",0,-0.1))))</f>
-        <v>0.75</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>75</v>
@@ -2426,7 +2432,7 @@
       </c>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" ht="47.4" thickBot="1">
+    <row r="2" spans="1:5" ht="48" thickBot="1">
       <c r="A2" s="45"/>
       <c r="B2" s="44" t="s">
         <v>73</v>
@@ -2435,7 +2441,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="4.05" customHeight="1">
+    <row r="3" spans="1:5" ht="4.1500000000000004" customHeight="1">
       <c r="A3" s="54"/>
       <c r="B3" s="57" t="s">
         <v>74</v>
@@ -2454,7 +2460,7 @@
       <c r="B5" s="59"/>
       <c r="C5" s="27"/>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A6" s="37">
         <f>IF(LEFT(B6,2)="No",0,IF(LEFT(B6,7)="Partial",0.02,IF(LEFT(B6,4)="Full",0.04,"n/a")))</f>
         <v>0.04</v>
@@ -2467,7 +2473,7 @@
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="37">
         <f>IF(LEFT(B7,2)="No",-0.1,IF(LEFT(B7,7)="Partial",0,IF(LEFT(B7,4)="Full",0.02,"n/a")))</f>
         <v>0.02</v>
@@ -2480,7 +2486,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="38">
         <f>IF(LEFT(B8,2)="No",-0.1,IF(LEFT(B8,7)="Partial",0,IF(LEFT(B8,4)="Full",0.02,"n/a")))</f>
         <v>0.02</v>
@@ -2493,7 +2499,7 @@
       </c>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="38">
         <f>IF(LEFT(B9,2)="No",-0.1,IF(LEFT(B9,7)="Partial",0,IF(LEFT(B9,4)="Full",0.02,"n/a")))</f>
         <v>0.02</v>
@@ -2506,7 +2512,7 @@
       </c>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="38">
         <f>IF(LEFT(B10,2)="No",-0.1,IF(LEFT(B10,7)="Partial",0,IF(LEFT(B10,4)="Full",0.02,"n/a")))</f>
         <v>0.02</v>
@@ -2519,7 +2525,7 @@
       </c>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A11" s="39">
         <f>IF(LEFT(B11,2)="No",-0.1,IF(LEFT(B11,7)="Partial",0,IF(LEFT(B11,4)="Full",0.02,"n/a")))</f>
         <v>0.02</v>
@@ -2532,7 +2538,7 @@
       </c>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="38">
         <f>IF(LEFT(B12,2)="No",0,IF(LEFT(B12,7)="Partial",0.01,IF(LEFT(B12,4)="Full",0.02,"n/a")))</f>
         <v>0.02</v>
@@ -2545,7 +2551,7 @@
       </c>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A13" s="38">
         <f>IF(LEFT(B13,2)="No",0,IF(LEFT(B13,7)="Partial",0.01,IF(LEFT(B13,4)="Full",0.02,"n/a")))</f>
         <v>0.02</v>
@@ -2558,7 +2564,7 @@
       </c>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A14" s="38" t="str">
         <f>IF(LEFT(B14,2)="No",0,IF(LEFT(B14,7)="Partial",0.01,IF(LEFT(B14,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2569,7 +2575,7 @@
       </c>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A15" s="39" t="str">
         <f>IF(LEFT(B15,2)="No",0,IF(LEFT(B15,7)="Partial",0.01,IF(LEFT(B15,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2583,7 +2589,7 @@
     <row r="16" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
       <c r="C16" s="27"/>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A17" s="36">
         <f>IF(LEFT(B17,2)="No",0,IF(LEFT(B17,7)="Partial",0.02,IF(LEFT(B17,4)="Full",0.04,"n/a")))</f>
         <v>0.04</v>
@@ -2596,40 +2602,46 @@
       </c>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A18" s="38" t="str">
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A18" s="38">
         <f>IF(LEFT(B18,2)="No",-0.1,IF(LEFT(B18,7)="Partial",0,IF(LEFT(B18,4)="Full",0.02,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B18" s="41"/>
+        <v>0.02</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>80</v>
+      </c>
       <c r="C18" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="25"/>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A19" s="38" t="str">
+    <row r="19" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A19" s="38">
         <f>IF(LEFT(B19,2)="No",-0.1,IF(LEFT(B19,7)="Partial",0,IF(LEFT(B19,4)="Full",0.02,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B19" s="41"/>
+        <v>0.02</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>80</v>
+      </c>
       <c r="C19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A20" s="38" t="str">
+    <row r="20" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A20" s="38">
         <f>IF(LEFT(B20,2)="No",-0.1,IF(LEFT(B20,7)="Partial",0,IF(LEFT(B20,4)="Full",0.02,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B20" s="41"/>
+        <v>0.02</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>80</v>
+      </c>
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="21" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A21" s="38">
         <f>IF(LEFT(B21,2)="No",-0.1,IF(LEFT(B21,7)="Partial",0,IF(LEFT(B21,4)="Full",0.02,"n/a")))</f>
         <v>0.02</v>
@@ -2642,7 +2654,7 @@
       </c>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="22" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A22" s="38">
         <f>IF(LEFT(B22,2)="No",-0.1,IF(LEFT(B22,7)="Partial",0,IF(LEFT(B22,4)="Full",0.02,"n/a")))</f>
         <v>0.02</v>
@@ -2655,40 +2667,46 @@
       </c>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A23" s="37" t="str">
+    <row r="23" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A23" s="37">
         <f>IF(LEFT(B23,2)="No",0,IF(LEFT(B23,7)="Partial",0.01,IF(LEFT(B23,4)="Full",0.02,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B23" s="40"/>
+        <v>0.02</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="C23" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="25"/>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A24" s="38" t="str">
+    <row r="24" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A24" s="38">
         <f>IF(LEFT(B24,2)="No",0,IF(LEFT(B24,7)="Partial",0.01,IF(LEFT(B24,4)="Full",0.02,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B24" s="41"/>
+        <v>0.02</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>80</v>
+      </c>
       <c r="C24" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A25" s="38" t="str">
+    <row r="25" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A25" s="38">
         <f>IF(LEFT(B25,2)="No",0,IF(LEFT(B25,7)="Partial",0.01,IF(LEFT(B25,4)="Full",0.02,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B25" s="41"/>
+        <v>0.02</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>80</v>
+      </c>
       <c r="C25" s="33" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="25"/>
     </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="26" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A26" s="39" t="str">
         <f>IF(LEFT(B26,2)="No",0,IF(LEFT(B26,7)="Partial",0.01,IF(LEFT(B26,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2702,18 +2720,20 @@
     <row r="27" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
-      <c r="A28" s="36" t="str">
+    <row r="28" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A28" s="36">
         <f>IF(LEFT(B28,2)="No",0,IF(LEFT(B28,7)="Partial",0.02,IF(LEFT(B28,4)="Full",0.04,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B28" s="43"/>
+        <v>0.02</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>81</v>
+      </c>
       <c r="C28" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="25"/>
     </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="29" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A29" s="37" t="str">
         <f>IF(LEFT(B29,2)="No",-0.1,IF(LEFT(B29,7)="Partial",0,IF(LEFT(B29,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2724,7 +2744,7 @@
       </c>
       <c r="E29" s="25"/>
     </row>
-    <row r="30" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="30" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A30" s="38" t="str">
         <f>IF(LEFT(B30,2)="No",-0.1,IF(LEFT(B30,7)="Partial",0,IF(LEFT(B30,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2735,7 +2755,7 @@
       </c>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="31" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A31" s="38" t="str">
         <f>IF(LEFT(B31,2)="No",-0.1,IF(LEFT(B31,7)="Partial",0,IF(LEFT(B31,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2746,7 +2766,7 @@
       </c>
       <c r="E31" s="24"/>
     </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="32" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A32" s="38" t="str">
         <f>IF(LEFT(B32,2)="No",-0.1,IF(LEFT(B32,7)="Partial",0,IF(LEFT(B32,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2757,7 +2777,7 @@
       </c>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="33" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A33" s="39" t="str">
         <f>IF(LEFT(B33,2)="No",-0.1,IF(LEFT(B33,7)="Partial",0,IF(LEFT(B33,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2768,7 +2788,7 @@
       </c>
       <c r="E33" s="25"/>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="34" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="38" t="str">
         <f>IF(LEFT(B34,2)="No",0,IF(LEFT(B34,7)="Partial",0.01,IF(LEFT(B34,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2779,7 +2799,7 @@
       </c>
       <c r="E34" s="25"/>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="35" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="38" t="str">
         <f>IF(LEFT(B35,2)="No",0,IF(LEFT(B35,7)="Partial",0.01,IF(LEFT(B35,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2790,7 +2810,7 @@
       </c>
       <c r="E35" s="25"/>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="36" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="38" t="str">
         <f>IF(LEFT(B36,2)="No",0,IF(LEFT(B36,7)="Partial",0.01,IF(LEFT(B36,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2801,7 +2821,7 @@
       </c>
       <c r="E36" s="25"/>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="37" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A37" s="39" t="str">
         <f>IF(LEFT(B37,2)="No",0,IF(LEFT(B37,7)="Partial",0.01,IF(LEFT(B37,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2815,18 +2835,20 @@
     <row r="38" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
       <c r="C38" s="27"/>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
-      <c r="A39" s="36" t="str">
+    <row r="39" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A39" s="36">
         <f>IF(LEFT(B39,2)="No",0,IF(LEFT(B39,7)="Partial",0.02,IF(LEFT(B39,4)="Full",0.04,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B39" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>82</v>
+      </c>
       <c r="C39" s="19" t="s">
         <v>68</v>
       </c>
       <c r="E39" s="24"/>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="40" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A40" s="37" t="str">
         <f>IF(LEFT(B40,2)="No",-0.1,IF(LEFT(B40,7)="Partial",0,IF(LEFT(B40,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2837,7 +2859,7 @@
       </c>
       <c r="E40" s="25"/>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="41" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A41" s="38" t="str">
         <f>IF(LEFT(B41,2)="No",-0.1,IF(LEFT(B41,7)="Partial",0,IF(LEFT(B41,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2848,7 +2870,7 @@
       </c>
       <c r="E41" s="24"/>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="42" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A42" s="38" t="str">
         <f>IF(LEFT(B42,2)="No",-0.1,IF(LEFT(B42,7)="Partial",0,IF(LEFT(B42,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2859,7 +2881,7 @@
       </c>
       <c r="E42" s="24"/>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="43" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A43" s="38" t="str">
         <f>IF(LEFT(B43,2)="No",-0.1,IF(LEFT(B43,7)="Partial",0,IF(LEFT(B43,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2870,7 +2892,7 @@
       </c>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="44" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A44" s="39" t="str">
         <f>IF(LEFT(B44,2)="No",-0.1,IF(LEFT(B44,7)="Partial",0,IF(LEFT(B44,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2881,7 +2903,7 @@
       </c>
       <c r="E44" s="25"/>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="45" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A45" s="37" t="str">
         <f>IF(LEFT(B45,2)="No",0,IF(LEFT(B45,7)="Partial",0.01,IF(LEFT(B45,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2892,7 +2914,7 @@
       </c>
       <c r="E45" s="25"/>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="46" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A46" s="38" t="str">
         <f>IF(LEFT(B46,2)="No",0,IF(LEFT(B46,7)="Partial",0.01,IF(LEFT(B46,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2903,7 +2925,7 @@
       </c>
       <c r="E46" s="25"/>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="47" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A47" s="38" t="str">
         <f>IF(LEFT(B47,2)="No",0,IF(LEFT(B47,7)="Partial",0.01,IF(LEFT(B47,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2914,7 +2936,7 @@
       </c>
       <c r="E47" s="25"/>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="48" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A48" s="39" t="str">
         <f>IF(LEFT(B48,2)="No",0,IF(LEFT(B48,7)="Partial",0.01,IF(LEFT(B48,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2928,18 +2950,20 @@
     <row r="49" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
       <c r="C49" s="27"/>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
-      <c r="A50" s="36" t="str">
+    <row r="50" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A50" s="36">
         <f>IF(LEFT(B50,2)="No",0,IF(LEFT(B50,7)="Partial",0.02,IF(LEFT(B50,4)="Full",0.04,"n/a")))</f>
-        <v>n/a</v>
-      </c>
-      <c r="B50" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>82</v>
+      </c>
       <c r="C50" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="25"/>
     </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="51" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A51" s="37" t="str">
         <f>IF(LEFT(B51,2)="No",-0.1,IF(LEFT(B51,7)="Partial",0,IF(LEFT(B51,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2950,7 +2974,7 @@
       </c>
       <c r="E51" s="25"/>
     </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="52" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A52" s="38" t="str">
         <f>IF(LEFT(B52,2)="No",-0.1,IF(LEFT(B52,7)="Partial",0,IF(LEFT(B52,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2961,7 +2985,7 @@
       </c>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="53" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A53" s="38" t="str">
         <f>IF(LEFT(B53,2)="No",-0.1,IF(LEFT(B53,7)="Partial",0,IF(LEFT(B53,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2972,7 +2996,7 @@
       </c>
       <c r="E53" s="24"/>
     </row>
-    <row r="54" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="54" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A54" s="38" t="str">
         <f>IF(LEFT(B54,2)="No",-0.1,IF(LEFT(B54,7)="Partial",0,IF(LEFT(B54,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2983,7 +3007,7 @@
       </c>
       <c r="E54" s="24"/>
     </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="55" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A55" s="39" t="str">
         <f>IF(LEFT(B55,2)="No",-0.1,IF(LEFT(B55,7)="Partial",0,IF(LEFT(B55,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -2994,7 +3018,7 @@
       </c>
       <c r="E55" s="25"/>
     </row>
-    <row r="56" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="56" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A56" s="38" t="str">
         <f>IF(LEFT(B56,2)="No",0,IF(LEFT(B56,7)="Partial",0.01,IF(LEFT(B56,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3005,7 +3029,7 @@
       </c>
       <c r="E56" s="25"/>
     </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="57" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A57" s="38" t="str">
         <f>IF(LEFT(B57,2)="No",0,IF(LEFT(B57,7)="Partial",0.01,IF(LEFT(B57,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3016,7 +3040,7 @@
       </c>
       <c r="E57" s="25"/>
     </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="58" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A58" s="38" t="str">
         <f>IF(LEFT(B58,2)="No",0,IF(LEFT(B58,7)="Partial",0.01,IF(LEFT(B58,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3027,7 +3051,7 @@
       </c>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="59" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A59" s="39" t="str">
         <f>IF(LEFT(B59,2)="No",0,IF(LEFT(B59,7)="Partial",0.01,IF(LEFT(B59,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3038,10 +3062,10 @@
       </c>
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:5" ht="7.95" customHeight="1" thickBot="1">
+    <row r="60" spans="1:5" ht="7.9" customHeight="1" thickBot="1">
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:5" s="50" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="61" spans="1:5" s="50" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A61" s="48" t="str">
         <f>IF(LEFT(B61,1)="5",0.05,IF(LEFT(B61,1)="4",0.04,IF(LEFT(B61,1)="3",0.03,IF(LEFT(B61,1)="2",0.02,IF(LEFT(B61,1)="1",0.01,IF(LEFT(B61,1)="O",0,IF(LEFT(B61,1)="L",0,"n/a")))))))</f>
         <v>n/a</v>
@@ -3052,7 +3076,7 @@
       </c>
       <c r="E61" s="51"/>
     </row>
-    <row r="62" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="62" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A62" s="37" t="str">
         <f>IF(LEFT(B62,2)="No",-0.1,IF(LEFT(B62,7)="Partial",0,IF(LEFT(B62,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3063,7 +3087,7 @@
       </c>
       <c r="E62" s="25"/>
     </row>
-    <row r="63" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="63" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A63" s="38" t="str">
         <f>IF(LEFT(B63,2)="No",-0.1,IF(LEFT(B63,7)="Partial",0,IF(LEFT(B63,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3074,7 +3098,7 @@
       </c>
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="64" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A64" s="38" t="str">
         <f>IF(LEFT(B64,2)="No",-0.1,IF(LEFT(B64,7)="Partial",0,IF(LEFT(B64,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3085,7 +3109,7 @@
       </c>
       <c r="E64" s="26"/>
     </row>
-    <row r="65" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="65" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A65" s="38" t="str">
         <f>IF(LEFT(B65,2)="No",-0.1,IF(LEFT(B65,7)="Partial",0,IF(LEFT(B65,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3096,7 +3120,7 @@
       </c>
       <c r="E65" s="26"/>
     </row>
-    <row r="66" spans="1:5" ht="16.05" customHeight="1" thickBot="1">
+    <row r="66" spans="1:5" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A66" s="39" t="str">
         <f>IF(LEFT(B66,2)="No",-0.1,IF(LEFT(B66,7)="Partial",0,IF(LEFT(B66,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3107,7 +3131,7 @@
       </c>
       <c r="E66" s="25"/>
     </row>
-    <row r="67" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="67" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A67" s="37" t="str">
         <f>IF(LEFT(B67,2)="No",0,IF(LEFT(B67,7)="Partial",0.01,IF(LEFT(B67,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3118,7 +3142,7 @@
       </c>
       <c r="E67" s="25"/>
     </row>
-    <row r="68" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="68" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A68" s="38" t="str">
         <f>IF(LEFT(B68,2)="No",0,IF(LEFT(B68,7)="Partial",0.01,IF(LEFT(B68,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3129,7 +3153,7 @@
       </c>
       <c r="E68" s="25"/>
     </row>
-    <row r="69" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1">
+    <row r="69" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A69" s="38" t="str">
         <f>IF(LEFT(B69,2)="No",0,IF(LEFT(B69,7)="Partial",0.01,IF(LEFT(B69,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3140,7 +3164,7 @@
       </c>
       <c r="E69" s="25"/>
     </row>
-    <row r="70" spans="1:5" s="3" customFormat="1" ht="16.05" customHeight="1" thickBot="1">
+    <row r="70" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A70" s="39" t="str">
         <f>IF(LEFT(B70,2)="No",0,IF(LEFT(B70,7)="Partial",0.01,IF(LEFT(B70,4)="Full",0.02,"n/a")))</f>
         <v>n/a</v>
@@ -3181,11 +3205,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="beginsWith" dxfId="34" priority="62" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="34" priority="63" operator="beginsWith" text="No">
+      <formula>LEFT(B6,LEN("No"))="No"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="33" priority="62" operator="beginsWith" text="Partial">
       <formula>LEFT(B6,LEN("Partial"))="Partial"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="33" priority="63" operator="beginsWith" text="No">
-      <formula>LEFT(B6,LEN("No"))="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B15">
@@ -3213,11 +3237,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B33">
-    <cfRule type="beginsWith" dxfId="26" priority="57" operator="beginsWith" text="No">
+    <cfRule type="beginsWith" dxfId="26" priority="56" operator="beginsWith" text="Partial">
+      <formula>LEFT(B28,LEN("Partial"))="Partial"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="25" priority="57" operator="beginsWith" text="No">
       <formula>LEFT(B28,LEN("No"))="No"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="56" operator="beginsWith" text="Partial">
-      <formula>LEFT(B28,LEN("Partial"))="Partial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B37">
@@ -3276,26 +3300,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="beginsWith" dxfId="11" priority="39" operator="beginsWith" text="5">
-      <formula>LEFT(B61,LEN("5"))="5"</formula>
+    <cfRule type="beginsWith" dxfId="11" priority="33" operator="beginsWith" text="L">
+      <formula>LEFT(B61,LEN("L"))="L"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="35" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="10" priority="34" operator="beginsWith" text="O">
+      <formula>LEFT(B61,LEN("O"))="O"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="9" priority="35" operator="beginsWith" text="1">
       <formula>LEFT(B61,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="38" operator="beginsWith" text="4">
+    <cfRule type="beginsWith" dxfId="8" priority="36" operator="beginsWith" text="2">
+      <formula>LEFT(B61,LEN("2"))="2"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="7" priority="37" operator="beginsWith" text="3">
+      <formula>LEFT(B61,LEN("3"))="3"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="6" priority="38" operator="beginsWith" text="4">
       <formula>LEFT(B61,LEN("4"))="4"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="37" operator="beginsWith" text="3">
-      <formula>LEFT(B61,LEN("3"))="3"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="36" operator="beginsWith" text="2">
-      <formula>LEFT(B61,LEN("2"))="2"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="34" operator="beginsWith" text="O">
-      <formula>LEFT(B61,LEN("O"))="O"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="33" operator="beginsWith" text="L">
-      <formula>LEFT(B61,LEN("L"))="L"</formula>
+    <cfRule type="beginsWith" dxfId="5" priority="39" operator="beginsWith" text="5">
+      <formula>LEFT(B61,LEN("5"))="5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:B66">
@@ -3312,11 +3336,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B70">
-    <cfRule type="beginsWith" dxfId="1" priority="19" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1" priority="20" operator="beginsWith" text="No">
+      <formula>LEFT(B67,LEN("No"))="No"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="19" operator="beginsWith" text="Partial">
       <formula>LEFT(B67,LEN("Partial"))="Partial"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="20" operator="beginsWith" text="No">
-      <formula>LEFT(B67,LEN("No"))="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3340,9 +3364,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24" thickBot="1">
@@ -3350,7 +3374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="20" customFormat="1" ht="16.2" thickBot="1">
+    <row r="2" spans="1:1" s="20" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="21" t="str">
         <f>IF(LEN(A3) &gt; 1000,"",IF(LEN(A3) &gt; 500,"You need more post-mortem reflection.",IF(A3&gt;0,IF(A3="If you think you have accomplished one or more bonus goals that you are worried might be overlooked, mention those here.","How did the project go? What did you learn? What could you improve?","You need A LOT MORE post-mortem reflection."),"How did the project go? What did you learn? What could you improve?")))</f>
         <v>You need A LOT MORE post-mortem reflection.</v>
@@ -3374,15 +3398,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="28"/>
-    <col min="6" max="6" width="8.88671875" style="29"/>
-    <col min="7" max="7" width="11.5546875" style="28" customWidth="1"/>
-    <col min="8" max="11" width="11.5546875" style="29" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="10.7109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="28"/>
+    <col min="6" max="6" width="8.85546875" style="29"/>
+    <col min="7" max="7" width="11.5703125" style="28" customWidth="1"/>
+    <col min="8" max="11" width="11.5703125" style="29" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="24" thickBot="1">
@@ -3400,7 +3424,7 @@
       <c r="J1" s="61"/>
       <c r="K1" s="61"/>
     </row>
-    <row r="2" spans="1:11" ht="34.200000000000003" customHeight="1" thickBot="1">
+    <row r="2" spans="1:11" ht="34.15" customHeight="1" thickBot="1">
       <c r="A2" s="62" t="s">
         <v>77</v>
       </c>
@@ -3430,10 +3454,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" thickBot="1">
@@ -3443,7 +3467,7 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" ht="16.2" thickBot="1">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -3452,10 +3476,10 @@
         <v>&lt;-- What lab goals had already been met at the time of this test (roughly)?</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -3464,10 +3488,10 @@
         <v>&lt;-- What date did the playtest occur (time of day not needed)?</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
       <c r="A5" s="16"/>
     </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -3476,11 +3500,11 @@
         <v>&lt;-- Where did the playtest occur (room name, 'tester's apartment', etc.)?</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
       <c r="A7" s="15"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:3" ht="16.2" thickBot="1">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
@@ -3489,11 +3513,11 @@
         <v>&lt;-- Rough total session length in minutes.</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.2" thickBot="1">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="15"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:3" ht="16.2" thickBot="1">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -3506,7 +3530,7 @@
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
     </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="14" t="s">
         <v>2</v>
       </c>
@@ -3520,7 +3544,7 @@
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
     </row>
-    <row r="14" spans="1:3" ht="16.2" thickBot="1">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
@@ -3534,7 +3558,7 @@
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
     </row>
-    <row r="16" spans="1:3" ht="16.2" thickBot="1">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -3548,7 +3572,7 @@
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="16.2" thickBot="1">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
@@ -3562,7 +3586,7 @@
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>11</v>
       </c>
@@ -3600,10 +3624,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" thickBot="1">
@@ -3613,7 +3637,7 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" ht="16.2" thickBot="1">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -3622,10 +3646,10 @@
         <v>&lt;-- What lab goals had already been met at the time of this test (roughly)?</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -3634,10 +3658,10 @@
         <v>&lt;-- What date did the playtest occur (time of day not needed)?</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
       <c r="A5" s="16"/>
     </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -3646,11 +3670,11 @@
         <v>&lt;-- Where did the playtest occur (room name, 'tester's apartment', etc.)?</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
       <c r="A7" s="15"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:3" ht="16.2" thickBot="1">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
@@ -3659,11 +3683,11 @@
         <v>&lt;-- Rough total session length in minutes.</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.2" thickBot="1">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="15"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:3" ht="16.2" thickBot="1">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -3676,7 +3700,7 @@
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
     </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="14" t="s">
         <v>2</v>
       </c>
@@ -3690,7 +3714,7 @@
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
     </row>
-    <row r="14" spans="1:3" ht="16.2" thickBot="1">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
@@ -3704,7 +3728,7 @@
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
     </row>
-    <row r="16" spans="1:3" ht="16.2" thickBot="1">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -3718,7 +3742,7 @@
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="16.2" thickBot="1">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
@@ -3732,7 +3756,7 @@
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>11</v>
       </c>
@@ -3770,10 +3794,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" thickBot="1">
@@ -3783,7 +3807,7 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" ht="16.2" thickBot="1">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -3792,10 +3816,10 @@
         <v>&lt;-- What lab goals had already been met at the time of this test (roughly)?</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -3804,10 +3828,10 @@
         <v>&lt;-- What date did the playtest occur (time of day not needed)?</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
       <c r="A5" s="16"/>
     </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -3816,11 +3840,11 @@
         <v>&lt;-- Where did the playtest occur (room name, 'tester's apartment', etc.)?</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
       <c r="A7" s="15"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:3" ht="16.2" thickBot="1">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
@@ -3829,11 +3853,11 @@
         <v>&lt;-- Rough total session length in minutes.</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.2" thickBot="1">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="15"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:3" ht="16.2" thickBot="1">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -3846,7 +3870,7 @@
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
     </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="14" t="s">
         <v>2</v>
       </c>
@@ -3860,7 +3884,7 @@
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
     </row>
-    <row r="14" spans="1:3" ht="16.2" thickBot="1">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
@@ -3874,7 +3898,7 @@
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
     </row>
-    <row r="16" spans="1:3" ht="16.2" thickBot="1">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -3888,7 +3912,7 @@
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="16.2" thickBot="1">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
@@ -3902,7 +3926,7 @@
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>11</v>
       </c>
@@ -3940,10 +3964,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" thickBot="1">
@@ -3953,7 +3977,7 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" ht="16.2" thickBot="1">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -3962,10 +3986,10 @@
         <v>&lt;-- What lab goals had already been met at the time of this test (roughly)?</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -3974,10 +3998,10 @@
         <v>&lt;-- What date did the playtest occur (time of day not needed)?</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
       <c r="A5" s="16"/>
     </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -3986,11 +4010,11 @@
         <v>&lt;-- Where did the playtest occur (room name, 'tester's apartment', etc.)?</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
       <c r="A7" s="15"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:3" ht="16.2" thickBot="1">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
@@ -3999,11 +4023,11 @@
         <v>&lt;-- Rough total session length in minutes.</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.2" thickBot="1">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="15"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:3" ht="16.2" thickBot="1">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -4016,7 +4040,7 @@
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
     </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="14" t="s">
         <v>2</v>
       </c>
@@ -4030,7 +4054,7 @@
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
     </row>
-    <row r="14" spans="1:3" ht="16.2" thickBot="1">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
@@ -4044,7 +4068,7 @@
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
     </row>
-    <row r="16" spans="1:3" ht="16.2" thickBot="1">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -4058,7 +4082,7 @@
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="16.2" thickBot="1">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
@@ -4072,7 +4096,7 @@
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>11</v>
       </c>
